--- a/Data Sources.xlsx
+++ b/Data Sources.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="460" windowWidth="21820" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3780" yWindow="460" windowWidth="21820" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resources of Links" sheetId="1" r:id="rId1"/>
-    <sheet name="Description of Crimes" sheetId="2" r:id="rId2"/>
+    <sheet name="Description of Crimes (Chicago)" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Exploration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Crime</t>
   </si>
@@ -226,6 +227,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Unlawful, nonviolent acts by a family member (or legal guardian) that threaten the physical, mental, or economic well-being or morals of another family member and that are not classifiable as other offenses, such as Assault, Incest, Statutory Rape, etc.</t>
+  </si>
+  <si>
+    <t>6340790 x 22</t>
+  </si>
+  <si>
+    <t>Total Dimension (2010 - Current)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Dimensions (2001 - Current): </t>
+  </si>
+  <si>
+    <t>2264846 x 24</t>
   </si>
 </sst>
 </file>
@@ -695,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,4 +961,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>